--- a/data/pca/factorExposure/factorExposure_2018-01-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-01-31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.002961494149122276</v>
+        <v>-0.01319364008662754</v>
       </c>
       <c r="C2">
-        <v>-0.00454606447163157</v>
+        <v>-0.02937835088978041</v>
       </c>
       <c r="D2">
-        <v>0.02605638401683202</v>
+        <v>-0.02623268179308903</v>
       </c>
       <c r="E2">
-        <v>-0.05176377187804981</v>
+        <v>0.0114547732981058</v>
       </c>
       <c r="F2">
-        <v>-0.0416667751599283</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.02920014977119403</v>
+      </c>
+      <c r="G2">
+        <v>0.01524530132352825</v>
+      </c>
+      <c r="H2">
+        <v>-0.02954095817220179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.06735344662811206</v>
+        <v>-0.06150011634445498</v>
       </c>
       <c r="C3">
-        <v>0.0064078369216233</v>
+        <v>-0.08031864403373883</v>
       </c>
       <c r="D3">
-        <v>-0.01419150856287405</v>
+        <v>-0.009942324288260246</v>
       </c>
       <c r="E3">
-        <v>-0.1999776647746445</v>
+        <v>0.05229122714013812</v>
       </c>
       <c r="F3">
-        <v>-0.2013741867607149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.1048941842806835</v>
+      </c>
+      <c r="G3">
+        <v>-0.003383042202739647</v>
+      </c>
+      <c r="H3">
+        <v>-0.08396081406989375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.03067742231320016</v>
+        <v>-0.04008574395996593</v>
       </c>
       <c r="C4">
-        <v>0.01670529163266249</v>
+        <v>-0.05857739463716294</v>
       </c>
       <c r="D4">
-        <v>0.02946066895716669</v>
+        <v>-0.02024861256342173</v>
       </c>
       <c r="E4">
-        <v>-0.006073318616355886</v>
+        <v>-0.004309334294397402</v>
       </c>
       <c r="F4">
-        <v>-0.04912590176139905</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.04274891535320022</v>
+      </c>
+      <c r="G4">
+        <v>-0.02437143962794278</v>
+      </c>
+      <c r="H4">
+        <v>-0.002051745806304541</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.04736212444057653</v>
+        <v>-0.02313333705994358</v>
       </c>
       <c r="C6">
-        <v>0.007096195491362877</v>
+        <v>-0.0556387749089886</v>
       </c>
       <c r="D6">
-        <v>0.03968649982363039</v>
+        <v>-0.01521109014248263</v>
       </c>
       <c r="E6">
-        <v>0.00113574331464629</v>
+        <v>-0.004272923772082095</v>
       </c>
       <c r="F6">
-        <v>-0.04209706276812802</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.02339214017431499</v>
+      </c>
+      <c r="G6">
+        <v>-0.01024182149193199</v>
+      </c>
+      <c r="H6">
+        <v>-0.007343011246799021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02089671599661792</v>
+        <v>-0.007304259232476757</v>
       </c>
       <c r="C7">
-        <v>0.07132327089798282</v>
+        <v>-0.02706675316275153</v>
       </c>
       <c r="D7">
-        <v>0.007069694763284732</v>
+        <v>-0.01205800203076976</v>
       </c>
       <c r="E7">
-        <v>-0.006267769386036705</v>
+        <v>-0.01746405451303989</v>
       </c>
       <c r="F7">
-        <v>-0.01227533142377173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.02195493828069276</v>
+      </c>
+      <c r="G7">
+        <v>-0.06083494055589941</v>
+      </c>
+      <c r="H7">
+        <v>-0.04119217648400941</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01064036799099895</v>
+        <v>0.005361656885726176</v>
       </c>
       <c r="C8">
-        <v>0.008403266998108574</v>
+        <v>-0.002173841707382788</v>
       </c>
       <c r="D8">
-        <v>0.02293747710018522</v>
+        <v>-0.001923425082807717</v>
       </c>
       <c r="E8">
-        <v>-0.008808912949667061</v>
+        <v>0.004165555302731487</v>
       </c>
       <c r="F8">
-        <v>-0.04513815615560447</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02728790861229234</v>
+      </c>
+      <c r="G8">
+        <v>-0.01032289861867403</v>
+      </c>
+      <c r="H8">
+        <v>-0.005341118494536305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.02676715249461855</v>
+        <v>-0.0186936446247517</v>
       </c>
       <c r="C9">
-        <v>0.01332759130455125</v>
+        <v>-0.04052658619029253</v>
       </c>
       <c r="D9">
-        <v>0.03034298720446954</v>
+        <v>-0.01469974690405252</v>
       </c>
       <c r="E9">
-        <v>-0.03844663835972016</v>
+        <v>-0.000850339940919152</v>
       </c>
       <c r="F9">
-        <v>-0.04614962273454806</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.0234526342822438</v>
+      </c>
+      <c r="G9">
+        <v>-0.01449742607568334</v>
+      </c>
+      <c r="H9">
+        <v>-0.0256376960966334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.05454866224948678</v>
+        <v>-0.1082913486174226</v>
       </c>
       <c r="C10">
-        <v>-0.002379791891456323</v>
+        <v>0.1710507056930495</v>
       </c>
       <c r="D10">
-        <v>-0.1539056263612428</v>
+        <v>0.02391607789521058</v>
       </c>
       <c r="E10">
-        <v>-0.07190340175897408</v>
+        <v>0.0267171051472142</v>
       </c>
       <c r="F10">
-        <v>0.01504905227442224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.008632259329206323</v>
+      </c>
+      <c r="G10">
+        <v>-0.02245111034554201</v>
+      </c>
+      <c r="H10">
+        <v>-0.03735705549591933</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02615794463321773</v>
+        <v>-0.02084399326790037</v>
       </c>
       <c r="C11">
-        <v>-0.002545913183166984</v>
+        <v>-0.04708116197773198</v>
       </c>
       <c r="D11">
-        <v>0.0416190536026137</v>
+        <v>-0.0007020267435512081</v>
       </c>
       <c r="E11">
-        <v>0.008287394472157174</v>
+        <v>-0.008591429626868805</v>
       </c>
       <c r="F11">
-        <v>-0.02187307180505139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.03128123081466834</v>
+      </c>
+      <c r="G11">
+        <v>0.01179965615481124</v>
+      </c>
+      <c r="H11">
+        <v>-0.01956246706959857</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03291996608181502</v>
+        <v>-0.02339944083011984</v>
       </c>
       <c r="C12">
-        <v>0.003263318091705477</v>
+        <v>-0.0428262327163425</v>
       </c>
       <c r="D12">
-        <v>0.03677941452822792</v>
+        <v>-0.004732884082697878</v>
       </c>
       <c r="E12">
-        <v>0.02505705172386355</v>
+        <v>-0.01295624542374189</v>
       </c>
       <c r="F12">
-        <v>-0.007293909528853353</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01602418404524868</v>
+      </c>
+      <c r="G12">
+        <v>-0.005979302300878264</v>
+      </c>
+      <c r="H12">
+        <v>-0.01178419955838077</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01547628307339496</v>
+        <v>-0.01264544946641083</v>
       </c>
       <c r="C13">
-        <v>-0.003814050463354224</v>
+        <v>-0.02042012267140281</v>
       </c>
       <c r="D13">
-        <v>0.004692011029350896</v>
+        <v>-0.02229599296920955</v>
       </c>
       <c r="E13">
-        <v>-0.03425874217616767</v>
+        <v>0.0139792956226605</v>
       </c>
       <c r="F13">
-        <v>-0.04237613796113168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.04614301393963501</v>
+      </c>
+      <c r="G13">
+        <v>0.00385099823115849</v>
+      </c>
+      <c r="H13">
+        <v>-0.0253278480489068</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01339639119352962</v>
+        <v>-0.005082558552724746</v>
       </c>
       <c r="C14">
-        <v>0.01532364649167383</v>
+        <v>-0.01807732747239734</v>
       </c>
       <c r="D14">
-        <v>0.007884291448972337</v>
+        <v>-0.007663321334376238</v>
       </c>
       <c r="E14">
-        <v>-0.007375360247720895</v>
+        <v>-0.006398161371660171</v>
       </c>
       <c r="F14">
-        <v>-0.03950727403557009</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.01866339407021703</v>
+      </c>
+      <c r="G14">
+        <v>-0.02443997459477917</v>
+      </c>
+      <c r="H14">
+        <v>-0.01177565991075983</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02296586366974256</v>
+        <v>-0.01887823035996745</v>
       </c>
       <c r="C16">
-        <v>0.002679338190126825</v>
+        <v>-0.03887746850836832</v>
       </c>
       <c r="D16">
-        <v>0.04035032432475116</v>
+        <v>-0.0004730325987554467</v>
       </c>
       <c r="E16">
-        <v>0.005393882845274036</v>
+        <v>-0.00607740574741623</v>
       </c>
       <c r="F16">
-        <v>-0.02189708062119759</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.02292670011421808</v>
+      </c>
+      <c r="G16">
+        <v>-0.0004307834070332144</v>
+      </c>
+      <c r="H16">
+        <v>-0.01456764011404152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.02655994456646493</v>
+        <v>-0.02222168553683442</v>
       </c>
       <c r="C19">
-        <v>0.0007474989504341412</v>
+        <v>-0.04536313423489471</v>
       </c>
       <c r="D19">
-        <v>0.02822867481511007</v>
+        <v>-0.01263997384729173</v>
       </c>
       <c r="E19">
-        <v>-0.01144498739702438</v>
+        <v>0.01689694490737263</v>
       </c>
       <c r="F19">
-        <v>-0.07859845754430599</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.06451411381886113</v>
+      </c>
+      <c r="G19">
+        <v>-0.005191346855375132</v>
+      </c>
+      <c r="H19">
+        <v>-0.01579544004655536</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.009743244731576903</v>
+        <v>-0.002785668301459036</v>
       </c>
       <c r="C20">
-        <v>0.005177477333643343</v>
+        <v>-0.01980293009396947</v>
       </c>
       <c r="D20">
-        <v>-0.002018888607693071</v>
+        <v>-0.01164762815582932</v>
       </c>
       <c r="E20">
-        <v>-0.01993050506311055</v>
+        <v>0.01199070164184436</v>
       </c>
       <c r="F20">
-        <v>-0.02530219237275566</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.02781629337168673</v>
+      </c>
+      <c r="G20">
+        <v>-0.007805063475845278</v>
+      </c>
+      <c r="H20">
+        <v>-0.009984293499306688</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.03194757538773331</v>
+        <v>-0.008284170567692562</v>
       </c>
       <c r="C21">
-        <v>0.02260552015201992</v>
+        <v>-0.0217294799513463</v>
       </c>
       <c r="D21">
-        <v>0.02018670862865071</v>
+        <v>-0.01427988218858741</v>
       </c>
       <c r="E21">
-        <v>-0.008941333238801218</v>
+        <v>0.01208534123738445</v>
       </c>
       <c r="F21">
-        <v>-0.03384180866134932</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.04048815688285314</v>
+      </c>
+      <c r="G21">
+        <v>-0.02125969398313781</v>
+      </c>
+      <c r="H21">
+        <v>-0.03175833179430668</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02106076859357376</v>
+        <v>-0.01341088971842669</v>
       </c>
       <c r="C24">
-        <v>0.001144180105834522</v>
+        <v>-0.03977092634687954</v>
       </c>
       <c r="D24">
-        <v>0.03067822274863065</v>
+        <v>-0.005645558455111323</v>
       </c>
       <c r="E24">
-        <v>0.005417817017043111</v>
+        <v>-0.01125038602390433</v>
       </c>
       <c r="F24">
-        <v>-0.01934291248047264</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.02451769208107456</v>
+      </c>
+      <c r="G24">
+        <v>0.005723159011073108</v>
+      </c>
+      <c r="H24">
+        <v>-0.02023263714806786</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03328353648661266</v>
+        <v>-0.02960566248865746</v>
       </c>
       <c r="C25">
-        <v>6.184463928220001e-05</v>
+        <v>-0.04792342627235117</v>
       </c>
       <c r="D25">
-        <v>0.03218178732590898</v>
+        <v>-0.009146987051759889</v>
       </c>
       <c r="E25">
-        <v>-0.004681256101160294</v>
+        <v>-0.01733762368991764</v>
       </c>
       <c r="F25">
-        <v>-0.03149780916368757</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.02624362157734428</v>
+      </c>
+      <c r="G25">
+        <v>-0.003446725249901682</v>
+      </c>
+      <c r="H25">
+        <v>-0.01237669354096946</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.007077512145486152</v>
+        <v>-0.002016502827579951</v>
       </c>
       <c r="C26">
-        <v>0.006981351325350394</v>
+        <v>-0.00134171379937698</v>
       </c>
       <c r="D26">
-        <v>0.009590896024876214</v>
+        <v>-0.02317137922146886</v>
       </c>
       <c r="E26">
-        <v>-0.03707679562275282</v>
+        <v>-0.002130147380980729</v>
       </c>
       <c r="F26">
-        <v>-0.02171744589424101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.009687305735508141</v>
+      </c>
+      <c r="G26">
+        <v>-0.01254335626193635</v>
+      </c>
+      <c r="H26">
+        <v>-0.01738298097415211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.004664654633959858</v>
+        <v>-0.001771804428426954</v>
       </c>
       <c r="C27">
-        <v>-0.0004906131150474317</v>
+        <v>0.0002563269240249607</v>
       </c>
       <c r="D27">
-        <v>-0.005193431341594066</v>
+        <v>0.000632665927698288</v>
       </c>
       <c r="E27">
-        <v>0.007009250469238546</v>
+        <v>0.001131158986104872</v>
       </c>
       <c r="F27">
-        <v>-0.0123784468665948</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.001064493060323204</v>
+      </c>
+      <c r="G27">
+        <v>-0.003392569958951711</v>
+      </c>
+      <c r="H27">
+        <v>0.005772244176326169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.09707054498886539</v>
+        <v>-0.150564918203973</v>
       </c>
       <c r="C28">
-        <v>-0.004222825718544983</v>
+        <v>0.2149474301772622</v>
       </c>
       <c r="D28">
-        <v>-0.2228333527336933</v>
+        <v>0.01877182970875533</v>
       </c>
       <c r="E28">
-        <v>-0.08482181808961117</v>
+        <v>0.01873651550259351</v>
       </c>
       <c r="F28">
-        <v>0.02322284881985702</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.004131321272962355</v>
+      </c>
+      <c r="G28">
+        <v>-0.03217008587769824</v>
+      </c>
+      <c r="H28">
+        <v>-0.03637192506462812</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.01682418437350098</v>
+        <v>-0.01106701383546404</v>
       </c>
       <c r="C29">
-        <v>0.01101742138501347</v>
+        <v>-0.01521944000588847</v>
       </c>
       <c r="D29">
-        <v>0.008657757980282708</v>
+        <v>-0.006266355553379746</v>
       </c>
       <c r="E29">
-        <v>-0.005672017974794536</v>
+        <v>-0.005745106716772973</v>
       </c>
       <c r="F29">
-        <v>-0.03913470505832046</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.01035954667406874</v>
+      </c>
+      <c r="G29">
+        <v>-0.02310106881637409</v>
+      </c>
+      <c r="H29">
+        <v>-0.003536334496446358</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.04001430095832174</v>
+        <v>-0.03493417451763137</v>
       </c>
       <c r="C30">
-        <v>-0.0486253547621814</v>
+        <v>-0.08043253879256992</v>
       </c>
       <c r="D30">
-        <v>0.05333820799776729</v>
+        <v>-0.02457671275094086</v>
       </c>
       <c r="E30">
-        <v>-0.01302605057716745</v>
+        <v>-0.000825039776010157</v>
       </c>
       <c r="F30">
-        <v>-0.08463656074049146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.04856740700198835</v>
+      </c>
+      <c r="G30">
+        <v>0.03188465527036697</v>
+      </c>
+      <c r="H30">
+        <v>0.009544166277736655</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.0451100440427564</v>
+        <v>-0.03300748686801793</v>
       </c>
       <c r="C31">
-        <v>0.0111387665938498</v>
+        <v>-0.0201374447387884</v>
       </c>
       <c r="D31">
-        <v>0.0125197352557641</v>
+        <v>-0.001457661495814611</v>
       </c>
       <c r="E31">
-        <v>0.002222590511516383</v>
+        <v>-0.008888894159135128</v>
       </c>
       <c r="F31">
-        <v>-0.02228803553499127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.01249163091553404</v>
+      </c>
+      <c r="G31">
+        <v>-0.02480053538355043</v>
+      </c>
+      <c r="H31">
+        <v>-0.007253787791217823</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.003581328948627861</v>
+        <v>-0.009654296584518628</v>
       </c>
       <c r="C32">
-        <v>0.02619103294491278</v>
+        <v>-0.02187072628102516</v>
       </c>
       <c r="D32">
-        <v>0.02628395511138504</v>
+        <v>0.00768312219933656</v>
       </c>
       <c r="E32">
-        <v>0.002862850814854747</v>
+        <v>-0.0002960152983713009</v>
       </c>
       <c r="F32">
-        <v>-0.05035709667368108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.09852141550202585</v>
+      </c>
+      <c r="G32">
+        <v>-0.007361514830686287</v>
+      </c>
+      <c r="H32">
+        <v>-0.01662080879104444</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.03144247275750828</v>
+        <v>-0.02146425615315359</v>
       </c>
       <c r="C33">
-        <v>-0.0183319091666148</v>
+        <v>-0.04454365613073366</v>
       </c>
       <c r="D33">
-        <v>0.03601484436606372</v>
+        <v>-0.0122224838131182</v>
       </c>
       <c r="E33">
-        <v>-0.0183140924379423</v>
+        <v>0.007778317197744623</v>
       </c>
       <c r="F33">
-        <v>-0.04563871517579537</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.02428419780135659</v>
+      </c>
+      <c r="G33">
+        <v>0.009850362079470591</v>
+      </c>
+      <c r="H33">
+        <v>-0.02802921953186516</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02446299967592845</v>
+        <v>-0.03080204993039779</v>
       </c>
       <c r="C34">
-        <v>0.01114453520743035</v>
+        <v>-0.04712971160280444</v>
       </c>
       <c r="D34">
-        <v>0.04150570752346561</v>
+        <v>0.00741013424098015</v>
       </c>
       <c r="E34">
-        <v>0.0109521159418906</v>
+        <v>-0.02186159622857701</v>
       </c>
       <c r="F34">
-        <v>-0.0266295975787608</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.02479197150612941</v>
+      </c>
+      <c r="G34">
+        <v>-0.006494367940947193</v>
+      </c>
+      <c r="H34">
+        <v>-0.0169872910110511</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01220025603087024</v>
+        <v>-0.006434337609892547</v>
       </c>
       <c r="C36">
-        <v>0.005928900459445365</v>
+        <v>0.0008103238740023777</v>
       </c>
       <c r="D36">
-        <v>0.002316737438420045</v>
+        <v>-0.01032267555799739</v>
       </c>
       <c r="E36">
-        <v>-0.01233329940331006</v>
+        <v>7.443525444334583e-05</v>
       </c>
       <c r="F36">
-        <v>-0.02102829069450086</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.005386771303696385</v>
+      </c>
+      <c r="G36">
+        <v>-0.00853363450495395</v>
+      </c>
+      <c r="H36">
+        <v>-0.01324841128794264</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01917722073287851</v>
+        <v>-0.02596189759808011</v>
       </c>
       <c r="C38">
-        <v>-0.00350676783123488</v>
+        <v>-0.0133002252559289</v>
       </c>
       <c r="D38">
-        <v>0.002182963300161613</v>
+        <v>0.009748381279489488</v>
       </c>
       <c r="E38">
-        <v>-0.03871018519359896</v>
+        <v>-0.002620325196699609</v>
       </c>
       <c r="F38">
-        <v>-0.0323913954976877</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.009821586594145674</v>
+      </c>
+      <c r="G38">
+        <v>-0.009319923553731155</v>
+      </c>
+      <c r="H38">
+        <v>-0.01115714598876404</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.01954308322530192</v>
+        <v>-0.01238453615386246</v>
       </c>
       <c r="C39">
-        <v>0.007995986732682897</v>
+        <v>-0.08305613794452617</v>
       </c>
       <c r="D39">
-        <v>0.05850198177375156</v>
+        <v>-0.01167683821117476</v>
       </c>
       <c r="E39">
-        <v>-0.01298252506130871</v>
+        <v>-0.004714496189979062</v>
       </c>
       <c r="F39">
-        <v>-0.04593910576222542</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.04184090418835015</v>
+      </c>
+      <c r="G39">
+        <v>0.01167243614332019</v>
+      </c>
+      <c r="H39">
+        <v>-0.03370855123434441</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.02239739947332569</v>
+        <v>-0.02109379050027369</v>
       </c>
       <c r="C40">
-        <v>-0.002721925136677046</v>
+        <v>-0.03002543281041328</v>
       </c>
       <c r="D40">
-        <v>0.03555995738127866</v>
+        <v>-0.01048762468470369</v>
       </c>
       <c r="E40">
-        <v>-0.01462133106078087</v>
+        <v>-0.003108912993309816</v>
       </c>
       <c r="F40">
-        <v>-0.007814710080800568</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02935588407450584</v>
+      </c>
+      <c r="G40">
+        <v>0.009504926155801525</v>
+      </c>
+      <c r="H40">
+        <v>-0.02714403045989894</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.008591513967004952</v>
+        <v>-0.01050062325179568</v>
       </c>
       <c r="C41">
-        <v>-0.0008215865202468372</v>
+        <v>0.009403252866420469</v>
       </c>
       <c r="D41">
-        <v>-0.01256379519634519</v>
+        <v>-0.002439184646775386</v>
       </c>
       <c r="E41">
-        <v>-0.01594822275335855</v>
+        <v>-0.004271918280725444</v>
       </c>
       <c r="F41">
-        <v>0.004711825833369573</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.0006924581692800504</v>
+      </c>
+      <c r="G41">
+        <v>-0.003421057707139956</v>
+      </c>
+      <c r="H41">
+        <v>-0.01106413904464336</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.2602496723622189</v>
+        <v>-0.06261537917546876</v>
       </c>
       <c r="C42">
-        <v>-0.1492501673057641</v>
+        <v>-0.113345999808488</v>
       </c>
       <c r="D42">
-        <v>0.3254808741913442</v>
+        <v>-0.1192266198392669</v>
       </c>
       <c r="E42">
-        <v>-0.5505609591825367</v>
+        <v>0.1282642247096201</v>
       </c>
       <c r="F42">
-        <v>0.6592865917701209</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.6249467778971404</v>
+      </c>
+      <c r="G42">
+        <v>0.3184252851103893</v>
+      </c>
+      <c r="H42">
+        <v>-0.6597872061006822</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.01563406135328617</v>
+        <v>-0.01626549183648467</v>
       </c>
       <c r="C43">
-        <v>-0.003713768352217842</v>
+        <v>0.004854913348998223</v>
       </c>
       <c r="D43">
-        <v>-0.006273677698529919</v>
+        <v>-0.00277916901626326</v>
       </c>
       <c r="E43">
-        <v>-0.02190204965940557</v>
+        <v>-0.001557968765171348</v>
       </c>
       <c r="F43">
-        <v>-0.006564668458026387</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.00607187683641647</v>
+      </c>
+      <c r="G43">
+        <v>0.001398283381037056</v>
+      </c>
+      <c r="H43">
+        <v>-0.01665520151351717</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.009357236133777275</v>
+        <v>-0.009673234658542121</v>
       </c>
       <c r="C44">
-        <v>0.01140693207245622</v>
+        <v>-0.04227631079558043</v>
       </c>
       <c r="D44">
-        <v>0.02040261491073873</v>
+        <v>-0.00592365818251267</v>
       </c>
       <c r="E44">
-        <v>-0.04346455515168323</v>
+        <v>0.008280887651194059</v>
       </c>
       <c r="F44">
-        <v>-0.05559889966510747</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.03357422263710166</v>
+      </c>
+      <c r="G44">
+        <v>-0.005371915525371293</v>
+      </c>
+      <c r="H44">
+        <v>-0.03934718241015076</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01333170836737805</v>
+        <v>-0.0001746504736747632</v>
       </c>
       <c r="C46">
-        <v>0.002261892238042188</v>
+        <v>-0.007692783673618571</v>
       </c>
       <c r="D46">
-        <v>0.03428154743371135</v>
+        <v>-0.01105525233642666</v>
       </c>
       <c r="E46">
-        <v>-0.01146558092489191</v>
+        <v>0.001095367204416078</v>
       </c>
       <c r="F46">
-        <v>-0.06765973873012027</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.009786868104754579</v>
+      </c>
+      <c r="G46">
+        <v>-0.0136400404117062</v>
+      </c>
+      <c r="H46">
+        <v>-0.004149257634523701</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.07027092188183304</v>
+        <v>-0.05753857764464884</v>
       </c>
       <c r="C47">
-        <v>-0.004214609010389027</v>
+        <v>-0.05331337790602943</v>
       </c>
       <c r="D47">
-        <v>0.01484796111172294</v>
+        <v>0.006531112022226814</v>
       </c>
       <c r="E47">
-        <v>0.02347958104862318</v>
+        <v>-0.006361860202971497</v>
       </c>
       <c r="F47">
-        <v>0.003735372468123144</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.03487667170965238</v>
+      </c>
+      <c r="G47">
+        <v>-0.03162831468306647</v>
+      </c>
+      <c r="H47">
+        <v>0.01067969359947007</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02095312516788437</v>
+        <v>-0.008703105114664267</v>
       </c>
       <c r="C48">
-        <v>0.004882982923226467</v>
+        <v>-0.00370862207832345</v>
       </c>
       <c r="D48">
-        <v>0.005609373323376107</v>
+        <v>-0.0005648987458281126</v>
       </c>
       <c r="E48">
-        <v>-0.009423193782732344</v>
+        <v>-0.001539400994123615</v>
       </c>
       <c r="F48">
-        <v>-0.02298274520603768</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.001751388811617033</v>
+      </c>
+      <c r="G48">
+        <v>-0.01492795330689368</v>
+      </c>
+      <c r="H48">
+        <v>-0.008860460252317169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.07921736655852947</v>
+        <v>-0.05978702410457562</v>
       </c>
       <c r="C50">
-        <v>0.02499026349881481</v>
+        <v>-0.05012132181926977</v>
       </c>
       <c r="D50">
-        <v>0.03759913275066655</v>
+        <v>0.005543289649207449</v>
       </c>
       <c r="E50">
-        <v>0.01071731931996928</v>
+        <v>-0.007925117487393029</v>
       </c>
       <c r="F50">
-        <v>-0.02783110421881744</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.02754781491457061</v>
+      </c>
+      <c r="G50">
+        <v>-0.05611297481423658</v>
+      </c>
+      <c r="H50">
+        <v>-0.001944225281973626</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.006420274743340763</v>
+        <v>-0.007973681401107258</v>
       </c>
       <c r="C51">
-        <v>0.008006142483716035</v>
+        <v>-0.01522045635581526</v>
       </c>
       <c r="D51">
-        <v>-0.01336097466600841</v>
+        <v>-0.007572570132523681</v>
       </c>
       <c r="E51">
-        <v>-0.05010338980289971</v>
+        <v>-0.0053263675460977</v>
       </c>
       <c r="F51">
-        <v>-0.05454595186377519</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.03337759152214601</v>
+      </c>
+      <c r="G51">
+        <v>-0.007332434339571297</v>
+      </c>
+      <c r="H51">
+        <v>-0.03607842683961198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1020775523548718</v>
+        <v>-0.08191575596783982</v>
       </c>
       <c r="C53">
-        <v>0.008028132445074526</v>
+        <v>-0.08089851030415408</v>
       </c>
       <c r="D53">
-        <v>0.04366377234711181</v>
+        <v>0.007407130937234424</v>
       </c>
       <c r="E53">
-        <v>0.06297025952316877</v>
+        <v>-0.0305970886757285</v>
       </c>
       <c r="F53">
-        <v>0.003258516855970757</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.04973180676857039</v>
+      </c>
+      <c r="G53">
+        <v>-0.04074215015690862</v>
+      </c>
+      <c r="H53">
+        <v>0.01675748965603917</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.024527533495522</v>
+        <v>-0.02060441780200569</v>
       </c>
       <c r="C54">
-        <v>0.009090795459667522</v>
+        <v>0.001335944855242358</v>
       </c>
       <c r="D54">
-        <v>-0.007991035918396892</v>
+        <v>0.005357245490629354</v>
       </c>
       <c r="E54">
-        <v>-0.0004264377135788352</v>
+        <v>0.002255189195068632</v>
       </c>
       <c r="F54">
-        <v>-0.02560020246586882</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.01435537905540574</v>
+      </c>
+      <c r="G54">
+        <v>-0.01813261078264406</v>
+      </c>
+      <c r="H54">
+        <v>-0.008810702911113303</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.07687090972135861</v>
+        <v>-0.05466617485554105</v>
       </c>
       <c r="C55">
-        <v>0.0005060448222763584</v>
+        <v>-0.06802967679151624</v>
       </c>
       <c r="D55">
-        <v>0.06175557337334245</v>
+        <v>0.00528665188119297</v>
       </c>
       <c r="E55">
-        <v>0.03997585891262571</v>
+        <v>-0.01878809451433305</v>
       </c>
       <c r="F55">
-        <v>0.009513202572624876</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.05371385227748165</v>
+      </c>
+      <c r="G55">
+        <v>-0.03216380382147405</v>
+      </c>
+      <c r="H55">
+        <v>0.01776948101610911</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1412869373355876</v>
+        <v>-0.1208142152388737</v>
       </c>
       <c r="C56">
-        <v>0.001342952433918446</v>
+        <v>-0.1106553220078204</v>
       </c>
       <c r="D56">
-        <v>0.05754730351110104</v>
+        <v>0.01630588090046104</v>
       </c>
       <c r="E56">
-        <v>0.09164499091425674</v>
+        <v>-0.03201305971565687</v>
       </c>
       <c r="F56">
-        <v>0.03393792615105475</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.0846049735813586</v>
+      </c>
+      <c r="G56">
+        <v>-0.04530420488711955</v>
+      </c>
+      <c r="H56">
+        <v>0.04929816316567687</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.03682145129983554</v>
+        <v>-0.01735193966898775</v>
       </c>
       <c r="C57">
-        <v>-0.008280567411897949</v>
+        <v>-0.01695186939402543</v>
       </c>
       <c r="D57">
-        <v>0.01575013352496688</v>
+        <v>-0.02331467287216969</v>
       </c>
       <c r="E57">
-        <v>-0.05134800352517144</v>
+        <v>0.03015590647384421</v>
       </c>
       <c r="F57">
-        <v>-0.02645388197775477</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.03403881097273499</v>
+      </c>
+      <c r="G57">
+        <v>-0.006102855936311273</v>
+      </c>
+      <c r="H57">
+        <v>-0.02618007764019406</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1970622911098009</v>
+        <v>-0.07550676601364008</v>
       </c>
       <c r="C58">
-        <v>-0.1235940327068142</v>
+        <v>-0.1444963577770192</v>
       </c>
       <c r="D58">
-        <v>0.2163846017531332</v>
+        <v>-0.01698357655857218</v>
       </c>
       <c r="E58">
-        <v>-0.393667487501902</v>
+        <v>0.9612389181246523</v>
       </c>
       <c r="F58">
-        <v>-0.5818192318514822</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.07000154720875118</v>
+      </c>
+      <c r="G58">
+        <v>-0.09704355326473491</v>
+      </c>
+      <c r="H58">
+        <v>0.1124477699655083</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.09159392270947281</v>
+        <v>-0.1788675679965429</v>
       </c>
       <c r="C59">
-        <v>-0.02512204131482714</v>
+        <v>0.1965903805135532</v>
       </c>
       <c r="D59">
-        <v>-0.1870111929199049</v>
+        <v>0.02627102577024594</v>
       </c>
       <c r="E59">
-        <v>-0.07441533100069782</v>
+        <v>0.01749316880553454</v>
       </c>
       <c r="F59">
-        <v>-0.02641912403759447</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.02176996409139129</v>
+      </c>
+      <c r="G59">
+        <v>-0.004656980906616522</v>
+      </c>
+      <c r="H59">
+        <v>-0.02002740184606809</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1836020080902364</v>
+        <v>-0.2938913350509884</v>
       </c>
       <c r="C60">
-        <v>-0.03583553278561906</v>
+        <v>-0.1174275367036993</v>
       </c>
       <c r="D60">
-        <v>-0.01806314591470294</v>
+        <v>0.008311991264249951</v>
       </c>
       <c r="E60">
-        <v>-0.07598055239763478</v>
+        <v>-0.06854676908310052</v>
       </c>
       <c r="F60">
-        <v>-0.09216002041277481</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.3415906354082097</v>
+      </c>
+      <c r="G60">
+        <v>0.2138765264547249</v>
+      </c>
+      <c r="H60">
+        <v>-0.1256516431943419</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02438936900792259</v>
+        <v>-0.01881734826445056</v>
       </c>
       <c r="C61">
-        <v>0.002197229839801121</v>
+        <v>-0.06390231801256628</v>
       </c>
       <c r="D61">
-        <v>0.04539373007041179</v>
+        <v>-0.004380511866533426</v>
       </c>
       <c r="E61">
-        <v>-0.007894212409078631</v>
+        <v>-0.007496771504568184</v>
       </c>
       <c r="F61">
-        <v>-0.02164667141767082</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.035675679732347</v>
+      </c>
+      <c r="G61">
+        <v>0.003367226511389317</v>
+      </c>
+      <c r="H61">
+        <v>-0.02051463681362479</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01334680556788451</v>
+        <v>-0.00836167099719517</v>
       </c>
       <c r="C63">
-        <v>0.006025307058619217</v>
+        <v>-0.02312953890876446</v>
       </c>
       <c r="D63">
-        <v>0.01909951173410923</v>
+        <v>-0.007248916929671403</v>
       </c>
       <c r="E63">
-        <v>0.001523530962371498</v>
+        <v>-0.01445952879528471</v>
       </c>
       <c r="F63">
-        <v>-0.01138048920046054</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.005450907512310743</v>
+      </c>
+      <c r="G63">
+        <v>-0.01823410851265797</v>
+      </c>
+      <c r="H63">
+        <v>-0.003837142091203355</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03936603262989931</v>
+        <v>-0.03780546209980269</v>
       </c>
       <c r="C64">
-        <v>0.003019377398730243</v>
+        <v>-0.03814575608910052</v>
       </c>
       <c r="D64">
-        <v>0.0279509172874623</v>
+        <v>-0.002792015423049706</v>
       </c>
       <c r="E64">
-        <v>-0.002217431725851541</v>
+        <v>-0.01740466968263198</v>
       </c>
       <c r="F64">
-        <v>-0.02356903084950952</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.003618829347969873</v>
+      </c>
+      <c r="G64">
+        <v>-3.485585774576833e-05</v>
+      </c>
+      <c r="H64">
+        <v>-0.023384244580228</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.05239144626983066</v>
+        <v>-0.05985366738577397</v>
       </c>
       <c r="C65">
-        <v>0.007786752780971882</v>
+        <v>-0.08076600650997703</v>
       </c>
       <c r="D65">
-        <v>0.04206520086569941</v>
+        <v>-0.01391622662786346</v>
       </c>
       <c r="E65">
-        <v>0.007692762392840149</v>
+        <v>-0.01830214556560521</v>
       </c>
       <c r="F65">
-        <v>-0.0385007153294906</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.03702336634720932</v>
+      </c>
+      <c r="G65">
+        <v>0.001216254620233157</v>
+      </c>
+      <c r="H65">
+        <v>0.0006086010262036305</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03987411148218908</v>
+        <v>-0.02923139087467549</v>
       </c>
       <c r="C66">
-        <v>-0.009320241627881462</v>
+        <v>-0.1175838785181406</v>
       </c>
       <c r="D66">
-        <v>0.06700750088622223</v>
+        <v>-0.009707701847284306</v>
       </c>
       <c r="E66">
-        <v>0.02972899959485976</v>
+        <v>-0.009553336750501703</v>
       </c>
       <c r="F66">
-        <v>-0.06944425349228411</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.05712221251201777</v>
+      </c>
+      <c r="G66">
+        <v>0.01738206514358536</v>
+      </c>
+      <c r="H66">
+        <v>-0.006112950444903488</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.03113243361410052</v>
+        <v>-0.049746196426186</v>
       </c>
       <c r="C67">
-        <v>-0.006353319874680042</v>
+        <v>-0.019820394027397</v>
       </c>
       <c r="D67">
-        <v>-0.006513422145820921</v>
+        <v>0.009177379521407012</v>
       </c>
       <c r="E67">
-        <v>-0.02101311946425007</v>
+        <v>-0.009374164087372164</v>
       </c>
       <c r="F67">
-        <v>-0.02304591826401858</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01219375212790687</v>
+      </c>
+      <c r="G67">
+        <v>-0.01218810475975675</v>
+      </c>
+      <c r="H67">
+        <v>-0.003044065657885698</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.09679861139951765</v>
+        <v>-0.1690623175196881</v>
       </c>
       <c r="C68">
-        <v>-0.02571271264973717</v>
+        <v>0.2434004294247579</v>
       </c>
       <c r="D68">
-        <v>-0.2152199871753248</v>
+        <v>0.008242873014748594</v>
       </c>
       <c r="E68">
-        <v>-0.07087743803527378</v>
+        <v>0.02876000869764369</v>
       </c>
       <c r="F68">
-        <v>-0.001563772658799831</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.0175436840262895</v>
+      </c>
+      <c r="G68">
+        <v>-0.01523952371536242</v>
+      </c>
+      <c r="H68">
+        <v>-0.01941747831565776</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05921162415946649</v>
+        <v>-0.05775718829352113</v>
       </c>
       <c r="C69">
-        <v>-0.003345589301395471</v>
+        <v>-0.04874073834236813</v>
       </c>
       <c r="D69">
-        <v>0.02177047492244118</v>
+        <v>0.01107389630691412</v>
       </c>
       <c r="E69">
-        <v>0.0247943873983903</v>
+        <v>-0.02771983158907439</v>
       </c>
       <c r="F69">
-        <v>-0.009476787169273901</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.01273255148598846</v>
+      </c>
+      <c r="G69">
+        <v>-0.01794709402631355</v>
+      </c>
+      <c r="H69">
+        <v>0.005534048144504642</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.0911010618578634</v>
+        <v>-0.1538817238976273</v>
       </c>
       <c r="C71">
-        <v>-0.01114008979012263</v>
+        <v>0.2023960403303116</v>
       </c>
       <c r="D71">
-        <v>-0.205939901992227</v>
+        <v>0.01407732391817798</v>
       </c>
       <c r="E71">
-        <v>-0.1114728148715188</v>
+        <v>0.0425866083027385</v>
       </c>
       <c r="F71">
-        <v>0.03671188757934617</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.02184150067567707</v>
+      </c>
+      <c r="G71">
+        <v>-0.02564348275632632</v>
+      </c>
+      <c r="H71">
+        <v>-0.04431049122523867</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1022995953140865</v>
+        <v>-0.06909661274246898</v>
       </c>
       <c r="C72">
-        <v>0.002110754984832392</v>
+        <v>-0.08948755866536984</v>
       </c>
       <c r="D72">
-        <v>0.09601618454425476</v>
+        <v>0.01232943665601405</v>
       </c>
       <c r="E72">
-        <v>0.01306869180083071</v>
+        <v>-0.03299145743152856</v>
       </c>
       <c r="F72">
-        <v>-0.1496176734961889</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.05406691050546764</v>
+      </c>
+      <c r="G72">
+        <v>0.01613381813406627</v>
+      </c>
+      <c r="H72">
+        <v>0.00727580940996653</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2308702327641144</v>
+        <v>-0.3625912597622593</v>
       </c>
       <c r="C73">
-        <v>-0.09172302104472298</v>
+        <v>-0.1767330949566125</v>
       </c>
       <c r="D73">
-        <v>0.01691027268279622</v>
+        <v>0.002198438287383201</v>
       </c>
       <c r="E73">
-        <v>-0.1341907701937589</v>
+        <v>-0.05482211005893853</v>
       </c>
       <c r="F73">
-        <v>-0.09473789450984613</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.3759001428011745</v>
+      </c>
+      <c r="G73">
+        <v>0.2787736864757385</v>
+      </c>
+      <c r="H73">
+        <v>-0.1721612239635655</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1334010703123961</v>
+        <v>-0.1105654897625551</v>
       </c>
       <c r="C74">
-        <v>-0.006088355122898887</v>
+        <v>-0.1162719244645362</v>
       </c>
       <c r="D74">
-        <v>0.05229960279647314</v>
+        <v>0.01456583941933208</v>
       </c>
       <c r="E74">
-        <v>0.07986311554144161</v>
+        <v>-0.0358608694427433</v>
       </c>
       <c r="F74">
-        <v>0.02990449174565463</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.06561190849838762</v>
+      </c>
+      <c r="G74">
+        <v>-0.04959427814015875</v>
+      </c>
+      <c r="H74">
+        <v>0.02956238801402415</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2526588649745651</v>
+        <v>-0.2307934654731623</v>
       </c>
       <c r="C75">
-        <v>-0.02062901697250422</v>
+        <v>-0.1809668106276942</v>
       </c>
       <c r="D75">
-        <v>0.07424782042560689</v>
+        <v>0.03533730866629223</v>
       </c>
       <c r="E75">
-        <v>0.1953295416376628</v>
+        <v>-0.04062517261846626</v>
       </c>
       <c r="F75">
-        <v>-0.005274551549330227</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1622023672798044</v>
+      </c>
+      <c r="G75">
+        <v>-0.08420863902718048</v>
+      </c>
+      <c r="H75">
+        <v>0.1332193407678909</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2700360216008368</v>
+        <v>-0.1489038806130448</v>
       </c>
       <c r="C76">
-        <v>-0.0001023115789252178</v>
+        <v>-0.1491174479353415</v>
       </c>
       <c r="D76">
-        <v>0.08769259425989136</v>
+        <v>0.02774593839996312</v>
       </c>
       <c r="E76">
-        <v>0.2516598620162863</v>
+        <v>-0.06096989618510645</v>
       </c>
       <c r="F76">
-        <v>0.04422071709326655</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1411336105936059</v>
+      </c>
+      <c r="G76">
+        <v>-0.09357156319720941</v>
+      </c>
+      <c r="H76">
+        <v>0.09659196010452628</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.09020491054118202</v>
+        <v>-0.04818132238594486</v>
       </c>
       <c r="C77">
-        <v>-0.01125010665246707</v>
+        <v>-0.06854724899316027</v>
       </c>
       <c r="D77">
-        <v>0.08051456465909367</v>
+        <v>-0.01232750758959118</v>
       </c>
       <c r="E77">
-        <v>-0.1131799897753864</v>
+        <v>0.03127941665867107</v>
       </c>
       <c r="F77">
-        <v>-0.01330332523166382</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.02706334416776771</v>
+      </c>
+      <c r="G77">
+        <v>-0.02343418877225959</v>
+      </c>
+      <c r="H77">
+        <v>-0.03692815496460731</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.0265442502487211</v>
+        <v>-0.03138414116687089</v>
       </c>
       <c r="C78">
-        <v>0.005951811408322408</v>
+        <v>-0.06100012411763837</v>
       </c>
       <c r="D78">
-        <v>0.05962067891066886</v>
+        <v>-0.004356061373193059</v>
       </c>
       <c r="E78">
-        <v>-0.01886644965759452</v>
+        <v>0.003933379352133078</v>
       </c>
       <c r="F78">
-        <v>-0.06744352047226571</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.05057018980448674</v>
+      </c>
+      <c r="G78">
+        <v>0.004667885406587589</v>
+      </c>
+      <c r="H78">
+        <v>-0.01796600402381174</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.1987070193016556</v>
+        <v>-0.06718249161000839</v>
       </c>
       <c r="C80">
-        <v>0.9537583382222661</v>
+        <v>-0.0832261459059868</v>
       </c>
       <c r="D80">
-        <v>-0.01523935758211966</v>
+        <v>-0.008938345290155067</v>
       </c>
       <c r="E80">
-        <v>-0.1413163758992493</v>
+        <v>-0.06605412193831077</v>
       </c>
       <c r="F80">
-        <v>0.02560873440284763</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.137915609474854</v>
+      </c>
+      <c r="G80">
+        <v>-0.8073123198265909</v>
+      </c>
+      <c r="H80">
+        <v>-0.4929169357098854</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.2033216933082396</v>
+        <v>-0.1374843077772272</v>
       </c>
       <c r="C81">
-        <v>-0.005623765303355068</v>
+        <v>-0.111932882003732</v>
       </c>
       <c r="D81">
-        <v>0.04007034858770123</v>
+        <v>0.02042087881472809</v>
       </c>
       <c r="E81">
-        <v>0.1484853782854063</v>
+        <v>-0.02370086717804075</v>
       </c>
       <c r="F81">
-        <v>-0.01466428788787757</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1002448999717433</v>
+      </c>
+      <c r="G81">
+        <v>-0.0715489794113503</v>
+      </c>
+      <c r="H81">
+        <v>0.06763163772104282</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.01685015210376396</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.01207704708582292</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.001361280934267931</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-0.01469557239553445</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.0138199570154638</v>
+      </c>
+      <c r="G82">
+        <v>0.008409809067948379</v>
+      </c>
+      <c r="H82">
+        <v>-0.0004294574217482351</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02646675170423992</v>
+        <v>-0.02227839738741362</v>
       </c>
       <c r="C83">
-        <v>-0.005057828007974597</v>
+        <v>-0.01793632961260004</v>
       </c>
       <c r="D83">
-        <v>0.01254603358859813</v>
+        <v>-0.004211513192074439</v>
       </c>
       <c r="E83">
-        <v>-0.03839979689136773</v>
+        <v>0.01578014539625556</v>
       </c>
       <c r="F83">
-        <v>-0.03453792208849783</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.0360834069674836</v>
+      </c>
+      <c r="G83">
+        <v>-0.003617687915804221</v>
+      </c>
+      <c r="H83">
+        <v>-0.0220136514109363</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2500718208581765</v>
+        <v>-0.2223115481547212</v>
       </c>
       <c r="C85">
-        <v>-0.02802089076885029</v>
+        <v>-0.1914632358608219</v>
       </c>
       <c r="D85">
-        <v>0.09710687446868885</v>
+        <v>0.02334688702669515</v>
       </c>
       <c r="E85">
-        <v>0.2282097386711471</v>
+        <v>-0.07237393348595826</v>
       </c>
       <c r="F85">
-        <v>0.01462055065220532</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1624409566421076</v>
+      </c>
+      <c r="G85">
+        <v>-0.04194745189087865</v>
+      </c>
+      <c r="H85">
+        <v>0.148494406468669</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.003540326429493641</v>
+        <v>-0.00989446760332442</v>
       </c>
       <c r="C86">
-        <v>0.008772700226367149</v>
+        <v>-0.02369843600166103</v>
       </c>
       <c r="D86">
-        <v>0.04210894745876597</v>
+        <v>-0.008535761370484576</v>
       </c>
       <c r="E86">
-        <v>-0.03545583851071414</v>
+        <v>0.006344653100292035</v>
       </c>
       <c r="F86">
-        <v>-0.06721102287673177</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.02901735773430421</v>
+      </c>
+      <c r="G86">
+        <v>-0.01496749253874775</v>
+      </c>
+      <c r="H86">
+        <v>-0.05953178237411484</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03280793166850472</v>
+        <v>-0.007331981904540029</v>
       </c>
       <c r="C87">
-        <v>0.006239863473029374</v>
+        <v>-0.03560484933377066</v>
       </c>
       <c r="D87">
-        <v>0.04466170585211317</v>
+        <v>-0.01039280933735782</v>
       </c>
       <c r="E87">
-        <v>-0.06195786064908512</v>
+        <v>0.04160233460764229</v>
       </c>
       <c r="F87">
-        <v>-0.06388174282493848</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.04955359061757922</v>
+      </c>
+      <c r="G87">
+        <v>-0.005950695708047079</v>
+      </c>
+      <c r="H87">
+        <v>-0.05206946551261712</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.04285087955902531</v>
+        <v>-0.06145394083567498</v>
       </c>
       <c r="C88">
-        <v>-0.005959698735151773</v>
+        <v>-0.03844582934518984</v>
       </c>
       <c r="D88">
-        <v>-0.003624056569271922</v>
+        <v>-0.01905836167136746</v>
       </c>
       <c r="E88">
-        <v>-0.002072260031083108</v>
+        <v>-0.009569176566589609</v>
       </c>
       <c r="F88">
-        <v>0.01159092780666775</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.03015462823248196</v>
+      </c>
+      <c r="G88">
+        <v>-0.001165817228472268</v>
+      </c>
+      <c r="H88">
+        <v>-0.01162012574646831</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1641478375179753</v>
+        <v>-0.2699401783741756</v>
       </c>
       <c r="C89">
-        <v>-0.05407713586959394</v>
+        <v>0.3412092166961543</v>
       </c>
       <c r="D89">
-        <v>-0.3663186887761851</v>
+        <v>0.02343538175838998</v>
       </c>
       <c r="E89">
-        <v>-0.0693788687247465</v>
+        <v>0.01596736517776879</v>
       </c>
       <c r="F89">
-        <v>-0.02111866605817105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.01226394686237932</v>
+      </c>
+      <c r="G89">
+        <v>-0.008486404591863943</v>
+      </c>
+      <c r="H89">
+        <v>-0.001860684449864691</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1084892017287025</v>
+        <v>-0.2187395998993258</v>
       </c>
       <c r="C90">
-        <v>-0.05112858995084246</v>
+        <v>0.3066507372467449</v>
       </c>
       <c r="D90">
-        <v>-0.3301177858443038</v>
+        <v>0.02204566797549435</v>
       </c>
       <c r="E90">
-        <v>-0.06211967047307498</v>
+        <v>0.02929086758276326</v>
       </c>
       <c r="F90">
-        <v>0.03036955846020073</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.04974406385991478</v>
+      </c>
+      <c r="G90">
+        <v>-0.00826297178330818</v>
+      </c>
+      <c r="H90">
+        <v>0.007399045677230441</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2971928658234865</v>
+        <v>-0.200779960058879</v>
       </c>
       <c r="C91">
-        <v>-0.03109104082192603</v>
+        <v>-0.1511392856137091</v>
       </c>
       <c r="D91">
-        <v>0.101072270002081</v>
+        <v>0.03118106057454269</v>
       </c>
       <c r="E91">
-        <v>0.2370233065341605</v>
+        <v>-0.05510442435460824</v>
       </c>
       <c r="F91">
-        <v>0.09754185293607741</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.1731194995049819</v>
+      </c>
+      <c r="G91">
+        <v>-0.07966818252589908</v>
+      </c>
+      <c r="H91">
+        <v>0.1075082308380552</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.2228444400867781</v>
+        <v>-0.240379522851631</v>
       </c>
       <c r="C92">
-        <v>-0.05492346913954306</v>
+        <v>0.2468295226295075</v>
       </c>
       <c r="D92">
-        <v>-0.3743697141364263</v>
+        <v>0.06431654501247663</v>
       </c>
       <c r="E92">
-        <v>0.04946873016225812</v>
+        <v>0.040390765067368</v>
       </c>
       <c r="F92">
-        <v>0.004511616422861024</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1015354476146467</v>
+      </c>
+      <c r="G92">
+        <v>-0.09352408479721745</v>
+      </c>
+      <c r="H92">
+        <v>0.06180539899549049</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1561439801293929</v>
+        <v>-0.2528603935500542</v>
       </c>
       <c r="C93">
-        <v>-0.07589129475114029</v>
+        <v>0.3014392976991792</v>
       </c>
       <c r="D93">
-        <v>-0.3868942840793635</v>
+        <v>0.03082493041802653</v>
       </c>
       <c r="E93">
-        <v>-0.1053991386958092</v>
+        <v>0.03543097060899945</v>
       </c>
       <c r="F93">
-        <v>0.07256331701435524</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.02876733448207682</v>
+      </c>
+      <c r="G93">
+        <v>0.01212890577753159</v>
+      </c>
+      <c r="H93">
+        <v>-0.02463526881353477</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3230385895488286</v>
+        <v>-0.2658546201161748</v>
       </c>
       <c r="C94">
-        <v>-0.05950563810845393</v>
+        <v>-0.1951322818405923</v>
       </c>
       <c r="D94">
-        <v>0.06272528325626925</v>
+        <v>0.02043824223396721</v>
       </c>
       <c r="E94">
-        <v>0.2632615731219857</v>
+        <v>-0.06433955309072342</v>
       </c>
       <c r="F94">
-        <v>-0.02433415867795474</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.2498241765173894</v>
+      </c>
+      <c r="G94">
+        <v>-0.09096498971206997</v>
+      </c>
+      <c r="H94">
+        <v>0.3441855348695667</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.06146738996268478</v>
+        <v>-0.08191347725778145</v>
       </c>
       <c r="C95">
-        <v>-0.07876409964106966</v>
+        <v>-0.1149707769611289</v>
       </c>
       <c r="D95">
-        <v>0.02704263839861466</v>
+        <v>0.01079960791325204</v>
       </c>
       <c r="E95">
-        <v>-0.002810194103700263</v>
+        <v>0.01989102277766347</v>
       </c>
       <c r="F95">
-        <v>-0.01088173360908786</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.07991108703436389</v>
+      </c>
+      <c r="G95">
+        <v>0.1208561477167155</v>
+      </c>
+      <c r="H95">
+        <v>-0.0260664223672988</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1877337644892436</v>
+        <v>-0.2028745577189862</v>
       </c>
       <c r="C98">
-        <v>-0.05336886948813405</v>
+        <v>-0.0671536778914541</v>
       </c>
       <c r="D98">
-        <v>-0.02888577611341423</v>
+        <v>0.0280109863581566</v>
       </c>
       <c r="E98">
-        <v>-0.1399652407365189</v>
+        <v>0.009418851913040302</v>
       </c>
       <c r="F98">
-        <v>-0.09157522541099797</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.1990336634649278</v>
+      </c>
+      <c r="G98">
+        <v>0.1516641612149794</v>
+      </c>
+      <c r="H98">
+        <v>-0.13650998219923</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.0007837486461616757</v>
+        <v>-0.005249534620326984</v>
       </c>
       <c r="C101">
-        <v>0.003683593382992954</v>
+        <v>-0.0162783989736709</v>
       </c>
       <c r="D101">
-        <v>0.03381398780143384</v>
+        <v>-0.0072587756370895</v>
       </c>
       <c r="E101">
-        <v>-0.07240533207384534</v>
+        <v>0.03090022884614071</v>
       </c>
       <c r="F101">
-        <v>-0.180218473495953</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.02581387030969423</v>
+      </c>
+      <c r="G101">
+        <v>-0.02862392586754239</v>
+      </c>
+      <c r="H101">
+        <v>0.007698271264589837</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1311278449678902</v>
+        <v>-0.1145470112328895</v>
       </c>
       <c r="C102">
-        <v>-0.009779452562522179</v>
+        <v>-0.09126845630859859</v>
       </c>
       <c r="D102">
-        <v>0.04086021168167896</v>
+        <v>0.003987782608332981</v>
       </c>
       <c r="E102">
-        <v>0.1100007371539931</v>
+        <v>-0.04279466256640586</v>
       </c>
       <c r="F102">
-        <v>0.0412308785520536</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.06629187834300314</v>
+      </c>
+      <c r="G102">
+        <v>-0.02565967726816348</v>
+      </c>
+      <c r="H102">
+        <v>0.05115625571387652</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04174555369960072</v>
+        <v>-0.009491340392554656</v>
       </c>
       <c r="C103">
-        <v>0.01549107163241504</v>
+        <v>-0.008687242009643749</v>
       </c>
       <c r="D103">
-        <v>0.01675709508200427</v>
+        <v>0.0004334047842800949</v>
       </c>
       <c r="E103">
-        <v>0.02269025204642492</v>
+        <v>0.001054488080682955</v>
       </c>
       <c r="F103">
-        <v>-0.009653996539237623</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.009996023334802744</v>
+      </c>
+      <c r="G103">
+        <v>-0.0215872935980939</v>
+      </c>
+      <c r="H103">
+        <v>-0.002148415773881072</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.08067095642668982</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.05470843236458556</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.9819480409211286</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.03789431343179012</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.03205552537288757</v>
+      </c>
+      <c r="G104">
+        <v>-0.04273433072822329</v>
+      </c>
+      <c r="H104">
+        <v>0.1111912725287214</v>
       </c>
     </row>
   </sheetData>
